--- a/data/ALS_project_list_NYSDEC 2019_2019-12-04.xlsx
+++ b/data/ALS_project_list_NYSDEC 2019_2019-12-04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\DOW\SMAS\projects\field_meter_management\prodss_lab_comparison\chlorophyll_r_analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\misc_projects\2019_chlorophyll_sensor_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89F092-B067-4E32-A326-772B971518DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9293B6F7-0A77-4C0E-8A9F-32AC8E37B2F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="417" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="417" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Streams only" sheetId="4" r:id="rId1"/>
@@ -4106,10 +4106,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E439DC6B-7A0E-47EE-98B4-B675D96D1798}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4181,7 +4182,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" hidden="1">
       <c r="A2">
         <v>71</v>
       </c>
@@ -4226,7 +4227,7 @@
       </c>
       <c r="O2" s="14"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" hidden="1">
       <c r="A3">
         <v>72</v>
       </c>
@@ -4271,7 +4272,7 @@
       </c>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" hidden="1">
       <c r="A4">
         <v>73</v>
       </c>
@@ -4316,7 +4317,7 @@
       </c>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" hidden="1">
       <c r="A5">
         <v>74</v>
       </c>
@@ -4361,7 +4362,7 @@
       </c>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" hidden="1">
       <c r="A6">
         <v>75</v>
       </c>
@@ -4406,7 +4407,7 @@
       </c>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" hidden="1">
       <c r="A7">
         <v>76</v>
       </c>
@@ -4451,7 +4452,7 @@
       </c>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" hidden="1">
       <c r="A8">
         <v>77</v>
       </c>
@@ -4496,7 +4497,7 @@
       </c>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" hidden="1">
       <c r="A9">
         <v>78</v>
       </c>
@@ -4541,7 +4542,7 @@
       </c>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" hidden="1">
       <c r="A10">
         <v>41</v>
       </c>
@@ -4584,7 +4585,7 @@
       </c>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" hidden="1">
       <c r="A11">
         <v>42</v>
       </c>
@@ -4627,7 +4628,7 @@
       </c>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" hidden="1">
       <c r="A12">
         <v>43</v>
       </c>
@@ -4670,7 +4671,7 @@
       </c>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" hidden="1">
       <c r="A13">
         <v>44</v>
       </c>
@@ -4713,7 +4714,7 @@
       </c>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" hidden="1">
       <c r="A14">
         <v>45</v>
       </c>
@@ -4756,7 +4757,7 @@
       </c>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" hidden="1">
       <c r="A15">
         <v>46</v>
       </c>
@@ -4799,7 +4800,7 @@
       </c>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" hidden="1">
       <c r="A16">
         <v>47</v>
       </c>
@@ -4842,7 +4843,7 @@
       </c>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" hidden="1">
       <c r="A17">
         <v>79</v>
       </c>
@@ -4887,7 +4888,7 @@
       </c>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" hidden="1">
       <c r="A18">
         <v>80</v>
       </c>
@@ -4932,7 +4933,7 @@
       </c>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" hidden="1">
       <c r="A19">
         <v>81</v>
       </c>
@@ -4977,7 +4978,7 @@
       </c>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" hidden="1">
       <c r="A20">
         <v>82</v>
       </c>
@@ -5022,7 +5023,7 @@
       </c>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" hidden="1">
       <c r="A21">
         <v>83</v>
       </c>
@@ -5067,7 +5068,7 @@
       </c>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" hidden="1">
       <c r="A22">
         <v>84</v>
       </c>
@@ -5112,7 +5113,7 @@
       </c>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" hidden="1">
       <c r="A23">
         <v>85</v>
       </c>
@@ -5157,7 +5158,7 @@
       </c>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" hidden="1">
       <c r="A24">
         <v>86</v>
       </c>
@@ -5202,7 +5203,7 @@
       </c>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" hidden="1">
       <c r="A25">
         <v>87</v>
       </c>
@@ -5247,7 +5248,7 @@
       </c>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" hidden="1">
       <c r="A26">
         <v>88</v>
       </c>
@@ -5292,7 +5293,7 @@
       </c>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" hidden="1">
       <c r="A27">
         <v>48</v>
       </c>
@@ -5335,7 +5336,7 @@
       </c>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" hidden="1">
       <c r="A28">
         <v>89</v>
       </c>
@@ -5380,7 +5381,7 @@
       </c>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" hidden="1">
       <c r="A29">
         <v>94</v>
       </c>
@@ -5425,7 +5426,7 @@
       </c>
       <c r="O29" s="14"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" hidden="1">
       <c r="A30">
         <v>90</v>
       </c>
@@ -5470,7 +5471,7 @@
       </c>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" hidden="1">
       <c r="A31">
         <v>91</v>
       </c>
@@ -5515,7 +5516,7 @@
       </c>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" hidden="1">
       <c r="A32">
         <v>92</v>
       </c>
@@ -5560,7 +5561,7 @@
       </c>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" hidden="1">
       <c r="A33">
         <v>93</v>
       </c>
@@ -5605,7 +5606,7 @@
       </c>
       <c r="O33" s="14"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" hidden="1">
       <c r="A34">
         <v>95</v>
       </c>
@@ -5648,7 +5649,7 @@
       </c>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" hidden="1">
       <c r="A35">
         <v>49</v>
       </c>
@@ -5691,7 +5692,7 @@
       </c>
       <c r="O35" s="14"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" hidden="1">
       <c r="A36">
         <v>96</v>
       </c>
@@ -5780,7 +5781,7 @@
       </c>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" hidden="1">
       <c r="A38">
         <v>97</v>
       </c>
@@ -5823,7 +5824,7 @@
       </c>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" hidden="1">
       <c r="A39">
         <v>30</v>
       </c>
@@ -5909,7 +5910,7 @@
       </c>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" hidden="1">
       <c r="A41">
         <v>99</v>
       </c>
@@ -5952,7 +5953,7 @@
       </c>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" hidden="1">
       <c r="A42">
         <v>98</v>
       </c>
@@ -5997,7 +5998,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" hidden="1">
       <c r="A43">
         <v>31</v>
       </c>
@@ -6040,7 +6041,7 @@
       </c>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" hidden="1">
       <c r="A44">
         <v>100</v>
       </c>
@@ -6083,7 +6084,7 @@
       </c>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" hidden="1">
       <c r="A45">
         <v>50</v>
       </c>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="1:16" ht="29">
+    <row r="46" spans="1:16" ht="29" hidden="1">
       <c r="A46">
         <v>101</v>
       </c>
@@ -6172,7 +6173,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" hidden="1">
       <c r="A47">
         <v>51</v>
       </c>
@@ -6215,7 +6216,7 @@
       </c>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" hidden="1">
       <c r="A48">
         <v>102</v>
       </c>
@@ -6259,7 +6260,7 @@
       <c r="O48" s="14"/>
       <c r="P48" s="15"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" hidden="1">
       <c r="A49">
         <v>103</v>
       </c>
@@ -6305,7 +6306,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" hidden="1">
       <c r="A50">
         <v>69</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" hidden="1">
       <c r="A51">
         <v>32</v>
       </c>
@@ -6394,7 +6395,7 @@
       </c>
       <c r="O51" s="14"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" hidden="1">
       <c r="A52">
         <v>24</v>
       </c>
@@ -6480,7 +6481,7 @@
       </c>
       <c r="O53" s="14"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" hidden="1">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>123</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
@@ -6566,7 +6567,7 @@
       </c>
       <c r="O55" s="14"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" hidden="1">
       <c r="A56">
         <v>25</v>
       </c>
@@ -6609,7 +6610,7 @@
       </c>
       <c r="O56" s="14"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" hidden="1">
       <c r="A57">
         <v>53</v>
       </c>
@@ -6675,7 +6676,7 @@
         <v>67</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
@@ -6695,7 +6696,7 @@
       </c>
       <c r="O58" s="14"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" hidden="1">
       <c r="A59">
         <v>104</v>
       </c>
@@ -6738,7 +6739,7 @@
       </c>
       <c r="O59" s="14"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" hidden="1">
       <c r="A60">
         <v>108</v>
       </c>
@@ -6781,7 +6782,7 @@
       </c>
       <c r="O60" s="14"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" hidden="1">
       <c r="A61">
         <v>109</v>
       </c>
@@ -6824,7 +6825,7 @@
       </c>
       <c r="O61" s="14"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" hidden="1">
       <c r="A62">
         <v>110</v>
       </c>
@@ -6867,7 +6868,7 @@
       </c>
       <c r="O62" s="14"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" hidden="1">
       <c r="A63">
         <v>111</v>
       </c>
@@ -6910,7 +6911,7 @@
       </c>
       <c r="O63" s="14"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" hidden="1">
       <c r="A64">
         <v>105</v>
       </c>
@@ -6955,7 +6956,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="29">
+    <row r="65" spans="1:16" ht="29" hidden="1">
       <c r="A65">
         <v>106</v>
       </c>
@@ -7001,7 +7002,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" hidden="1">
       <c r="A66">
         <v>33</v>
       </c>
@@ -7044,7 +7045,7 @@
       </c>
       <c r="O66" s="14"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" hidden="1">
       <c r="A67">
         <v>112</v>
       </c>
@@ -7089,7 +7090,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" hidden="1">
       <c r="A68">
         <v>113</v>
       </c>
@@ -7132,7 +7133,7 @@
       </c>
       <c r="O68" s="14"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" hidden="1">
       <c r="A69">
         <v>114</v>
       </c>
@@ -7175,7 +7176,7 @@
       </c>
       <c r="O69" s="14"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" hidden="1">
       <c r="A70">
         <v>115</v>
       </c>
@@ -7218,7 +7219,7 @@
       </c>
       <c r="O70" s="14"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" hidden="1">
       <c r="A71">
         <v>107</v>
       </c>
@@ -7261,7 +7262,7 @@
       </c>
       <c r="O71" s="14"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" hidden="1">
       <c r="A72">
         <v>54</v>
       </c>
@@ -7304,7 +7305,7 @@
       </c>
       <c r="O72" s="14"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" hidden="1">
       <c r="A73">
         <v>55</v>
       </c>
@@ -7347,7 +7348,7 @@
       </c>
       <c r="O73" s="14"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" hidden="1">
       <c r="A74">
         <v>26</v>
       </c>
@@ -7390,7 +7391,7 @@
       </c>
       <c r="O74" s="14"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" hidden="1">
       <c r="A75">
         <v>116</v>
       </c>
@@ -7433,7 +7434,7 @@
       </c>
       <c r="O75" s="14"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" hidden="1">
       <c r="A76">
         <v>34</v>
       </c>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="O76" s="14"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" hidden="1">
       <c r="A77">
         <v>117</v>
       </c>
@@ -7519,7 +7520,7 @@
       </c>
       <c r="O77" s="14"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" hidden="1">
       <c r="A78">
         <v>15</v>
       </c>
@@ -7565,7 +7566,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" hidden="1">
       <c r="A79">
         <v>70</v>
       </c>
@@ -7611,7 +7612,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" hidden="1">
       <c r="A80">
         <v>118</v>
       </c>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="O80" s="14"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" hidden="1">
       <c r="A81">
         <v>119</v>
       </c>
@@ -7701,7 +7702,7 @@
       </c>
       <c r="O81" s="14"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" hidden="1">
       <c r="A82">
         <v>56</v>
       </c>
@@ -7787,7 +7788,7 @@
       </c>
       <c r="O83" s="14"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" hidden="1">
       <c r="A84">
         <v>120</v>
       </c>
@@ -7832,7 +7833,7 @@
       </c>
       <c r="O84" s="14"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" hidden="1">
       <c r="A85">
         <v>121</v>
       </c>
@@ -7877,7 +7878,7 @@
       </c>
       <c r="O85" s="14"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" hidden="1">
       <c r="A86">
         <v>122</v>
       </c>
@@ -7922,7 +7923,7 @@
       </c>
       <c r="O86" s="14"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" hidden="1">
       <c r="A87">
         <v>123</v>
       </c>
@@ -7967,7 +7968,7 @@
       </c>
       <c r="O87" s="14"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" hidden="1">
       <c r="A88">
         <v>124</v>
       </c>
@@ -8012,7 +8013,7 @@
       </c>
       <c r="O88" s="14"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" hidden="1">
       <c r="A89">
         <v>125</v>
       </c>
@@ -8057,7 +8058,7 @@
       </c>
       <c r="O89" s="14"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" hidden="1">
       <c r="A90">
         <v>126</v>
       </c>
@@ -8102,7 +8103,7 @@
       </c>
       <c r="O90" s="14"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" hidden="1">
       <c r="A91">
         <v>134</v>
       </c>
@@ -8147,7 +8148,7 @@
       </c>
       <c r="O91" s="14"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" hidden="1">
       <c r="A92">
         <v>127</v>
       </c>
@@ -8192,7 +8193,7 @@
       </c>
       <c r="O92" s="14"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" hidden="1">
       <c r="A93">
         <v>135</v>
       </c>
@@ -8237,7 +8238,7 @@
       </c>
       <c r="O93" s="14"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" hidden="1">
       <c r="A94">
         <v>17</v>
       </c>
@@ -8280,7 +8281,7 @@
       </c>
       <c r="O94" s="14"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" hidden="1">
       <c r="A95">
         <v>128</v>
       </c>
@@ -8325,7 +8326,7 @@
       </c>
       <c r="O95" s="14"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" hidden="1">
       <c r="A96">
         <v>136</v>
       </c>
@@ -8370,7 +8371,7 @@
       </c>
       <c r="O96" s="14"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" hidden="1">
       <c r="A97">
         <v>129</v>
       </c>
@@ -8415,7 +8416,7 @@
       </c>
       <c r="O97" s="14"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" hidden="1">
       <c r="A98">
         <v>130</v>
       </c>
@@ -8460,7 +8461,7 @@
       </c>
       <c r="O98" s="14"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" hidden="1">
       <c r="A99">
         <v>18</v>
       </c>
@@ -8503,7 +8504,7 @@
       </c>
       <c r="O99" s="14"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" hidden="1">
       <c r="A100">
         <v>19</v>
       </c>
@@ -8549,7 +8550,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" hidden="1">
       <c r="A101">
         <v>137</v>
       </c>
@@ -8592,7 +8593,7 @@
       </c>
       <c r="O101" s="14"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" hidden="1">
       <c r="A102">
         <v>35</v>
       </c>
@@ -8635,7 +8636,7 @@
       </c>
       <c r="O102" s="14"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" hidden="1">
       <c r="A103">
         <v>131</v>
       </c>
@@ -8678,7 +8679,7 @@
       </c>
       <c r="O103" s="14"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" hidden="1">
       <c r="A104">
         <v>132</v>
       </c>
@@ -8721,7 +8722,7 @@
       </c>
       <c r="O104" s="14"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" hidden="1">
       <c r="A105">
         <v>133</v>
       </c>
@@ -8764,7 +8765,7 @@
       </c>
       <c r="O105" s="14"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" hidden="1">
       <c r="A106">
         <v>140</v>
       </c>
@@ -8807,7 +8808,7 @@
       </c>
       <c r="O106" s="14"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" hidden="1">
       <c r="A107">
         <v>138</v>
       </c>
@@ -8850,7 +8851,7 @@
       </c>
       <c r="O107" s="14"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" hidden="1">
       <c r="A108">
         <v>57</v>
       </c>
@@ -8893,7 +8894,7 @@
       </c>
       <c r="O108" s="14"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" hidden="1">
       <c r="A109">
         <v>139</v>
       </c>
@@ -8936,7 +8937,7 @@
       </c>
       <c r="O109" s="14"/>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" hidden="1">
       <c r="A110">
         <v>58</v>
       </c>
@@ -8979,7 +8980,7 @@
       </c>
       <c r="O110" s="14"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" hidden="1">
       <c r="A111">
         <v>36</v>
       </c>
@@ -9022,7 +9023,7 @@
       </c>
       <c r="O111" s="14"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" hidden="1">
       <c r="A112">
         <v>141</v>
       </c>
@@ -9065,7 +9066,7 @@
       </c>
       <c r="O112" s="14"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" hidden="1">
       <c r="A113">
         <v>142</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" hidden="1">
       <c r="A114">
         <v>59</v>
       </c>
@@ -9154,7 +9155,7 @@
       </c>
       <c r="O114" s="14"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" hidden="1">
       <c r="A115">
         <v>143</v>
       </c>
@@ -9197,7 +9198,7 @@
       </c>
       <c r="O115" s="14"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" hidden="1">
       <c r="A116">
         <v>144</v>
       </c>
@@ -9240,7 +9241,7 @@
       </c>
       <c r="O116" s="14"/>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" hidden="1">
       <c r="A117">
         <v>145</v>
       </c>
@@ -9326,7 +9327,7 @@
       </c>
       <c r="O118" s="14"/>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" hidden="1">
       <c r="A119">
         <v>37</v>
       </c>
@@ -9369,7 +9370,7 @@
       </c>
       <c r="O119" s="14"/>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" hidden="1">
       <c r="A120">
         <v>146</v>
       </c>
@@ -9455,7 +9456,7 @@
       </c>
       <c r="O121" s="14"/>
     </row>
-    <row r="122" spans="1:16">
+    <row r="122" spans="1:16" hidden="1">
       <c r="A122">
         <v>147</v>
       </c>
@@ -9500,7 +9501,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" hidden="1">
       <c r="A123">
         <v>148</v>
       </c>
@@ -9543,7 +9544,7 @@
       </c>
       <c r="O123" s="14"/>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" hidden="1">
       <c r="A124">
         <v>149</v>
       </c>
@@ -9586,7 +9587,7 @@
       </c>
       <c r="O124" s="14"/>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" hidden="1">
       <c r="A125">
         <v>60</v>
       </c>
@@ -9629,7 +9630,7 @@
       </c>
       <c r="O125" s="14"/>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" hidden="1">
       <c r="A126">
         <v>61</v>
       </c>
@@ -9672,7 +9673,7 @@
       </c>
       <c r="O126" s="14"/>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" hidden="1">
       <c r="A127">
         <v>150</v>
       </c>
@@ -9718,7 +9719,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" hidden="1">
       <c r="A128">
         <v>29</v>
       </c>
@@ -9764,7 +9765,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" hidden="1">
       <c r="A129">
         <v>151</v>
       </c>
@@ -9807,7 +9808,7 @@
       </c>
       <c r="O129" s="14"/>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" hidden="1">
       <c r="A130">
         <v>62</v>
       </c>
@@ -9850,7 +9851,7 @@
       </c>
       <c r="O130" s="14"/>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" hidden="1">
       <c r="A131">
         <v>63</v>
       </c>
@@ -9893,7 +9894,7 @@
       </c>
       <c r="O131" s="14"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" hidden="1">
       <c r="A132">
         <v>38</v>
       </c>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="O132" s="14"/>
     </row>
-    <row r="133" spans="1:16" ht="29">
+    <row r="133" spans="1:16" ht="29" hidden="1">
       <c r="A133">
         <v>22</v>
       </c>
@@ -10025,7 +10026,7 @@
       </c>
       <c r="O134" s="14"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" hidden="1">
       <c r="A135">
         <v>64</v>
       </c>
@@ -10068,7 +10069,7 @@
       </c>
       <c r="O135" s="14"/>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" hidden="1">
       <c r="A136">
         <v>152</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" hidden="1">
       <c r="A137">
         <v>39</v>
       </c>
@@ -10156,7 +10157,7 @@
       </c>
       <c r="O137" s="14"/>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" hidden="1">
       <c r="A138">
         <v>65</v>
       </c>
@@ -10199,7 +10200,7 @@
       </c>
       <c r="O138" s="14"/>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" hidden="1">
       <c r="A139">
         <v>153</v>
       </c>
@@ -10244,7 +10245,7 @@
       </c>
       <c r="O139" s="14"/>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" hidden="1">
       <c r="A140">
         <v>154</v>
       </c>
@@ -10289,7 +10290,7 @@
       </c>
       <c r="O140" s="14"/>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" hidden="1">
       <c r="A141">
         <v>155</v>
       </c>
@@ -10332,7 +10333,7 @@
       </c>
       <c r="O141" s="14"/>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" hidden="1">
       <c r="A142">
         <v>161</v>
       </c>
@@ -10375,7 +10376,7 @@
       <c r="N142" s="2"/>
       <c r="O142" s="14"/>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" hidden="1">
       <c r="A143">
         <v>162</v>
       </c>
@@ -10418,7 +10419,7 @@
       <c r="N143" s="2"/>
       <c r="O143" s="14"/>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" hidden="1">
       <c r="A144">
         <v>163</v>
       </c>
@@ -10461,7 +10462,7 @@
       <c r="N144" s="2"/>
       <c r="O144" s="14"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" hidden="1">
       <c r="A145">
         <v>164</v>
       </c>
@@ -10504,7 +10505,7 @@
       <c r="N145" s="2"/>
       <c r="O145" s="14"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" hidden="1">
       <c r="A146">
         <v>156</v>
       </c>
@@ -10549,7 +10550,7 @@
       </c>
       <c r="O146" s="14"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" hidden="1">
       <c r="A147">
         <v>157</v>
       </c>
@@ -10594,7 +10595,7 @@
       </c>
       <c r="O147" s="14"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" hidden="1">
       <c r="A148">
         <v>159</v>
       </c>
@@ -10637,7 +10638,7 @@
       <c r="N148" s="2"/>
       <c r="O148" s="14"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" hidden="1">
       <c r="A149">
         <v>160</v>
       </c>
@@ -10682,7 +10683,7 @@
       </c>
       <c r="O149" s="14"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" hidden="1">
       <c r="A150">
         <v>165</v>
       </c>
@@ -10725,7 +10726,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="14"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" hidden="1">
       <c r="A151">
         <v>158</v>
       </c>
@@ -10770,7 +10771,7 @@
       </c>
       <c r="O151" s="14"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" hidden="1">
       <c r="A152">
         <v>166</v>
       </c>
@@ -10813,7 +10814,7 @@
       <c r="N152" s="2"/>
       <c r="O152" s="14"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" hidden="1">
       <c r="A153">
         <v>167</v>
       </c>
@@ -10856,7 +10857,7 @@
       <c r="N153" s="2"/>
       <c r="O153" s="14"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" hidden="1">
       <c r="A154">
         <v>66</v>
       </c>
@@ -10899,7 +10900,7 @@
       </c>
       <c r="O154" s="14"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" hidden="1">
       <c r="A155">
         <v>168</v>
       </c>
@@ -10942,7 +10943,7 @@
       <c r="N155" s="2"/>
       <c r="O155" s="14"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" hidden="1">
       <c r="A156">
         <v>169</v>
       </c>
@@ -10985,7 +10986,7 @@
       <c r="N156" s="2"/>
       <c r="O156" s="14"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" hidden="1">
       <c r="A157">
         <v>40</v>
       </c>
@@ -11026,7 +11027,7 @@
       <c r="N157" s="2"/>
       <c r="O157" s="14"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" hidden="1">
       <c r="A158">
         <v>170</v>
       </c>
@@ -11069,7 +11070,7 @@
       <c r="N158" s="2"/>
       <c r="O158" s="14"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" hidden="1">
       <c r="A159">
         <v>171</v>
       </c>
@@ -11112,7 +11113,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="14"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" hidden="1">
       <c r="A160">
         <v>67</v>
       </c>
@@ -11153,7 +11154,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="14"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" hidden="1">
       <c r="A161">
         <v>68</v>
       </c>
@@ -11194,7 +11195,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="14"/>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" hidden="1">
       <c r="A162">
         <v>1</v>
       </c>
@@ -11231,7 +11232,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="14"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" hidden="1">
       <c r="A163">
         <v>3</v>
       </c>
@@ -11268,7 +11269,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="14"/>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" hidden="1">
       <c r="A164">
         <v>2</v>
       </c>
@@ -13001,7 +13002,13 @@
       <c r="O277" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P164" xr:uid="{4F2D2417-C101-4FED-8D6A-A9F7B464EC43}"/>
+  <autoFilter ref="A1:P164" xr:uid="{4F2D2417-C101-4FED-8D6A-A9F7B464EC43}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Finger Lakes RAS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N164">
     <sortCondition ref="J9"/>
   </sortState>
